--- a/InputFiles/CTDC/TC01_CTDC_CollectTimepoint-Archival.xlsx
+++ b/InputFiles/CTDC/TC01_CTDC_CollectTimepoint-Archival.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epishinavv\git\Commons_Automation\InputFiles\CTDC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84C3173-6D9C-4CBE-8978-06E367F9453C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9F4681-DD38-4E8A-AE23-6A40CB308B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -656,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
